--- a/training/results/ts/linear_regression/test_results.xlsx
+++ b/training/results/ts/linear_regression/test_results.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:BM16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
       <c r="Q1" s="1" t="n"/>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>best_single_threshold_0.50_0.50</t>
+          <t>best_single_threshold_0.05_0.95</t>
         </is>
       </c>
       <c r="S1" s="1" t="n"/>
@@ -505,7 +505,7 @@
       <c r="Y1" s="1" t="n"/>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>best_multiple_thresholds_0.50_0.50</t>
+          <t>best_multiple_thresholds_0.05_0.95</t>
         </is>
       </c>
       <c r="AA1" s="1" t="n"/>
@@ -517,7 +517,7 @@
       <c r="AG1" s="1" t="n"/>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>best_graph_thresholds_0.50_0.50</t>
+          <t>best_graph_thresholds_0.05_0.95</t>
         </is>
       </c>
       <c r="AI1" s="1" t="n"/>
@@ -527,6 +527,42 @@
       <c r="AM1" s="1" t="n"/>
       <c r="AN1" s="1" t="n"/>
       <c r="AO1" s="1" t="n"/>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>best_single_threshold_0.25_0.75</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="n"/>
+      <c r="AR1" s="1" t="n"/>
+      <c r="AS1" s="1" t="n"/>
+      <c r="AT1" s="1" t="n"/>
+      <c r="AU1" s="1" t="n"/>
+      <c r="AV1" s="1" t="n"/>
+      <c r="AW1" s="1" t="n"/>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>best_multiple_thresholds_0.25_0.75</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="n"/>
+      <c r="AZ1" s="1" t="n"/>
+      <c r="BA1" s="1" t="n"/>
+      <c r="BB1" s="1" t="n"/>
+      <c r="BC1" s="1" t="n"/>
+      <c r="BD1" s="1" t="n"/>
+      <c r="BE1" s="1" t="n"/>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>best_graph_thresholds_0.25_0.75</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="n"/>
+      <c r="BH1" s="1" t="n"/>
+      <c r="BI1" s="1" t="n"/>
+      <c r="BJ1" s="1" t="n"/>
+      <c r="BK1" s="1" t="n"/>
+      <c r="BL1" s="1" t="n"/>
+      <c r="BM1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -730,6 +766,126 @@
         </is>
       </c>
       <c r="AO2" s="1" t="inlineStr">
+        <is>
+          <t>accuracy1</t>
+        </is>
+      </c>
+      <c r="AP2" s="1" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="AQ2" s="1" t="inlineStr">
+        <is>
+          <t>rmse_macroaveraged</t>
+        </is>
+      </c>
+      <c r="AR2" s="1" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="AS2" s="1" t="inlineStr">
+        <is>
+          <t>mae_macroaveraged</t>
+        </is>
+      </c>
+      <c r="AT2" s="1" t="inlineStr">
+        <is>
+          <t>mse_macroaveraged</t>
+        </is>
+      </c>
+      <c r="AU2" s="1" t="inlineStr">
+        <is>
+          <t>somers_d</t>
+        </is>
+      </c>
+      <c r="AV2" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="AW2" s="1" t="inlineStr">
+        <is>
+          <t>accuracy1</t>
+        </is>
+      </c>
+      <c r="AX2" s="1" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="AY2" s="1" t="inlineStr">
+        <is>
+          <t>rmse_macroaveraged</t>
+        </is>
+      </c>
+      <c r="AZ2" s="1" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="BA2" s="1" t="inlineStr">
+        <is>
+          <t>mae_macroaveraged</t>
+        </is>
+      </c>
+      <c r="BB2" s="1" t="inlineStr">
+        <is>
+          <t>mse_macroaveraged</t>
+        </is>
+      </c>
+      <c r="BC2" s="1" t="inlineStr">
+        <is>
+          <t>somers_d</t>
+        </is>
+      </c>
+      <c r="BD2" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="BE2" s="1" t="inlineStr">
+        <is>
+          <t>accuracy1</t>
+        </is>
+      </c>
+      <c r="BF2" s="1" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="BG2" s="1" t="inlineStr">
+        <is>
+          <t>rmse_macroaveraged</t>
+        </is>
+      </c>
+      <c r="BH2" s="1" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="BI2" s="1" t="inlineStr">
+        <is>
+          <t>mae_macroaveraged</t>
+        </is>
+      </c>
+      <c r="BJ2" s="1" t="inlineStr">
+        <is>
+          <t>mse_macroaveraged</t>
+        </is>
+      </c>
+      <c r="BK2" s="1" t="inlineStr">
+        <is>
+          <t>somers_d</t>
+        </is>
+      </c>
+      <c r="BL2" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="BM2" s="1" t="inlineStr">
         <is>
           <t>accuracy1</t>
         </is>
@@ -740,120 +896,196 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1.662762545067503</v>
+        <v>1.07970275236774</v>
       </c>
       <c r="C4" t="n">
-        <v>1.254265460386658</v>
+        <v>1.054194042852426</v>
       </c>
       <c r="D4" t="n">
-        <v>1.177515372484877</v>
+        <v>0.6593461074359968</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7302862999901137</v>
+        <v>0.6652920459401848</v>
       </c>
       <c r="F4" t="n">
-        <v>1.573181845118955</v>
+        <v>1.111325079985543</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8700649675162418</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+        <v>0.9553208773354996</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.824</v>
+      </c>
       <c r="J4" t="n">
-        <v>1.359589956010579</v>
+        <v>1.07970275236774</v>
       </c>
       <c r="K4" t="n">
-        <v>1.083735392822581</v>
+        <v>1.054194042852426</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.6593461074359968</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5939440993788819</v>
+        <v>0.6652920459401848</v>
       </c>
       <c r="N4" t="n">
-        <v>1.174482401656315</v>
+        <v>1.111325079985543</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8510744627686156</v>
+        <v>0.9553208773354996</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3787878787878788</v>
+        <v>0.384</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.803030303030303</v>
+        <v>0.824</v>
       </c>
       <c r="R4" t="n">
-        <v>1.359589956010579</v>
+        <v>1.07970275236774</v>
       </c>
       <c r="S4" t="n">
-        <v>1.083735392822581</v>
+        <v>1.054194042852426</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.6593461074359968</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5939440993788819</v>
+        <v>0.6652920459401848</v>
       </c>
       <c r="V4" t="n">
-        <v>1.174482401656315</v>
+        <v>1.111325079985543</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8510744627686156</v>
+        <v>0.9553208773354996</v>
       </c>
       <c r="X4" t="n">
-        <v>0.3787878787878788</v>
+        <v>0.384</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.803030303030303</v>
+        <v>0.824</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.359589956010579</v>
+        <v>1.07970275236774</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.083735392822581</v>
+        <v>1.054194042852426</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.6593461074359968</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.5939440993788819</v>
+        <v>0.6652920459401848</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.174482401656315</v>
+        <v>1.111325079985543</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.8510744627686156</v>
+        <v>0.9553208773354996</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.3787878787878788</v>
+        <v>0.384</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.803030303030303</v>
+        <v>0.824</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.35400640077266</v>
+        <v>1.07970275236774</v>
       </c>
       <c r="AI4" t="n">
-        <v>1.080386979209172</v>
+        <v>1.054194042852426</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.8939393939393939</v>
+        <v>0.6593461074359968</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.5866977225672878</v>
+        <v>0.6652920459401848</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.167236024844721</v>
+        <v>1.111325079985543</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.8540729635182409</v>
+        <v>0.9553208773354996</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.384</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.803030303030303</v>
+        <v>0.824</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1.07970275236774</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1.054194042852426</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.6593461074359968</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.6652920459401848</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1.111325079985543</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.9553208773354996</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.824</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>1.07970275236774</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>1.054194042852426</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.6593461074359968</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.6652920459401848</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>1.111325079985543</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.9553208773354996</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.824</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>1.07970275236774</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>1.054194042852426</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.6593461074359968</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.6652920459401848</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>1.111325079985543</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.9553208773354996</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0.824</v>
       </c>
     </row>
     <row r="5">
@@ -861,120 +1093,196 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8326344936433347</v>
+        <v>0.7933741386166491</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7671426005481632</v>
+        <v>0.5096763621327517</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6138318991536181</v>
+        <v>0.5545525245443619</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4759997729547782</v>
+        <v>0.2644895849443016</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5885077695757986</v>
+        <v>0.2597699941168758</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9269776876267748</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+        <v>0.9509154655239579</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5420560747663551</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.8504672897196262</v>
+      </c>
       <c r="J5" t="n">
-        <v>0.8542421961772491</v>
+        <v>0.7933741386166491</v>
       </c>
       <c r="K5" t="n">
-        <v>0.776162358515171</v>
+        <v>0.5096763621327517</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5135135135135135</v>
+        <v>0.5545525245443619</v>
       </c>
       <c r="M5" t="n">
-        <v>0.418953510257858</v>
+        <v>0.2644895849443016</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6024280067758329</v>
+        <v>0.2597699941168758</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9160243407707911</v>
+        <v>0.9509154655239579</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5945945945945946</v>
+        <v>0.5420560747663551</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8918918918918919</v>
+        <v>0.8504672897196262</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8542421961772491</v>
+        <v>0.7933741386166491</v>
       </c>
       <c r="S5" t="n">
-        <v>0.776162358515171</v>
+        <v>0.5096763621327517</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5135135135135135</v>
+        <v>0.5545525245443619</v>
       </c>
       <c r="U5" t="n">
-        <v>0.418953510257858</v>
+        <v>0.2644895849443016</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6024280067758329</v>
+        <v>0.2597699941168758</v>
       </c>
       <c r="W5" t="n">
-        <v>0.9160243407707911</v>
+        <v>0.9509154655239579</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5945945945945946</v>
+        <v>0.5420560747663551</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.8918918918918919</v>
+        <v>0.8504672897196262</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.8542421961772491</v>
+        <v>0.7933741386166491</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.776162358515171</v>
+        <v>0.5096763621327517</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.5135135135135135</v>
+        <v>0.5545525245443619</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.418953510257858</v>
+        <v>0.2644895849443016</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.6024280067758329</v>
+        <v>0.2597699941168758</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.9160243407707911</v>
+        <v>0.9509154655239579</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.5945945945945946</v>
+        <v>0.5420560747663551</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.8918918918918919</v>
+        <v>0.8504672897196262</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.8542421961772491</v>
+        <v>0.7933741386166491</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.776162358515171</v>
+        <v>0.5096763621327517</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.5135135135135135</v>
+        <v>0.5545525245443619</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.418953510257858</v>
+        <v>0.2644895849443016</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.6024280067758329</v>
+        <v>0.2597699941168758</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.9160243407707911</v>
+        <v>0.9509154655239579</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.5945945945945946</v>
+        <v>0.5420560747663551</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.8918918918918919</v>
+        <v>0.8504672897196262</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.7933741386166491</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.5096763621327517</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.5545525245443619</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.2644895849443016</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.2597699941168758</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.9509154655239579</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.5420560747663551</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.8504672897196262</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.7933741386166491</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.5096763621327517</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.5545525245443619</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.2644895849443016</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.2597699941168758</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.9509154655239579</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.5420560747663551</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0.8504672897196262</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.7933741386166491</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0.5096763621327517</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0.5545525245443619</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0.2644895849443016</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0.2597699941168758</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0.9509154655239579</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0.5420560747663551</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0.8504672897196262</v>
       </c>
     </row>
     <row r="6">
@@ -982,120 +1290,196 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9880007161777207</v>
+        <v>0.6155201572467396</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8240651304868336</v>
+        <v>0.7383834263082073</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7808746455346527</v>
+        <v>0.4429044207984732</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5091288861997739</v>
+        <v>0.5499759272549466</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6790833392842821</v>
+        <v>0.5452100842466477</v>
       </c>
       <c r="G6" t="n">
-        <v>0.900709219858156</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+        <v>0.9801854537919602</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.4074074074074074</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.9037037037037037</v>
+      </c>
       <c r="J6" t="n">
-        <v>0.8961195807649239</v>
+        <v>0.6155201572467396</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6322645444007439</v>
+        <v>0.7383834263082073</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6212121212121212</v>
+        <v>0.4429044207984732</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3345410628019324</v>
+        <v>0.5499759272549466</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3997584541062802</v>
+        <v>0.5452100842466477</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9012158054711246</v>
+        <v>0.9801854537919602</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4696969696969697</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9037037037037037</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8961195807649239</v>
+        <v>0.6155201572467396</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6322645444007439</v>
+        <v>0.7383834263082073</v>
       </c>
       <c r="T6" t="n">
-        <v>0.6212121212121212</v>
+        <v>0.4429044207984732</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3345410628019324</v>
+        <v>0.5499759272549466</v>
       </c>
       <c r="V6" t="n">
-        <v>0.3997584541062802</v>
+        <v>0.5452100842466477</v>
       </c>
       <c r="W6" t="n">
-        <v>0.9012158054711246</v>
+        <v>0.9801854537919602</v>
       </c>
       <c r="X6" t="n">
-        <v>0.4696969696969697</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9037037037037037</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.8961195807649239</v>
+        <v>0.6155201572467396</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.6322645444007439</v>
+        <v>0.7383834263082073</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6212121212121212</v>
+        <v>0.4429044207984732</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3345410628019324</v>
+        <v>0.5499759272549466</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.3997584541062802</v>
+        <v>0.5452100842466477</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.9012158054711246</v>
+        <v>0.9801854537919602</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.4696969696969697</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9037037037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.8876253645985945</v>
+        <v>0.6155201572467396</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.6148327607337605</v>
+        <v>0.7383834263082073</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.4429044207984732</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.3128019323671498</v>
+        <v>0.5499759272549466</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.3780193236714976</v>
+        <v>0.5452100842466477</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.903242147922999</v>
+        <v>0.9801854537919602</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9037037037037037</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.6155201572467396</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.7383834263082073</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.4429044207984732</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.5499759272549466</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.5452100842466477</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.9801854537919602</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.4074074074074074</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.9037037037037037</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.6155201572467396</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.7383834263082073</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.4429044207984732</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.5499759272549466</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.5452100842466477</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.9801854537919602</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0.4074074074074074</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.9037037037037037</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.6155201572467396</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0.7383834263082073</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.4429044207984732</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.5499759272549466</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0.5452100842466477</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0.9801854537919602</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0.4074074074074074</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0.9037037037037037</v>
       </c>
     </row>
     <row r="7">
@@ -1103,129 +1487,1981 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8519504166161678</v>
+        <v>0.7155145972306732</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8229417020799709</v>
+        <v>0.8556318074599766</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7123921125693211</v>
+        <v>0.5849920144032131</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5379907569728939</v>
+        <v>0.6851908518141583</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6772330450222794</v>
+        <v>0.7321057899372264</v>
       </c>
       <c r="G7" t="n">
-        <v>0.958953722334004</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+        <v>0.9736456808199122</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.6296296296296297</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8518518518518519</v>
+      </c>
       <c r="J7" t="n">
-        <v>0.9079230828238284</v>
+        <v>0.7155145972306732</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8156162940641773</v>
+        <v>0.8556318074599766</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7162162162162162</v>
+        <v>0.5849920144032131</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5174038521864609</v>
+        <v>0.6851908518141583</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6652299391429827</v>
+        <v>0.7321057899372264</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9336016096579477</v>
+        <v>0.9736456808199122</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3378378378378378</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9459459459459459</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9079230828238284</v>
+        <v>0.7155145972306732</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8156162940641773</v>
+        <v>0.8556318074599766</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7162162162162162</v>
+        <v>0.5849920144032131</v>
       </c>
       <c r="U7" t="n">
-        <v>0.5174038521864609</v>
+        <v>0.6851908518141583</v>
       </c>
       <c r="V7" t="n">
-        <v>0.6652299391429827</v>
+        <v>0.7321057899372264</v>
       </c>
       <c r="W7" t="n">
-        <v>0.9336016096579477</v>
+        <v>0.9736456808199122</v>
       </c>
       <c r="X7" t="n">
-        <v>0.3378378378378378</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.9459459459459459</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.9079230828238284</v>
+        <v>0.7155145972306732</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.8156162940641773</v>
+        <v>0.8556318074599766</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.7162162162162162</v>
+        <v>0.5849920144032131</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.5174038521864609</v>
+        <v>0.6851908518141583</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.6652299391429827</v>
+        <v>0.7321057899372264</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.9336016096579477</v>
+        <v>0.9736456808199122</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.3378378378378378</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.9459459459459459</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.9079230828238284</v>
+        <v>0.7155145972306732</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.8156162940641773</v>
+        <v>0.8556318074599766</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.7162162162162162</v>
+        <v>0.5849920144032131</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.5174038521864609</v>
+        <v>0.6851908518141583</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.6652299391429827</v>
+        <v>0.7321057899372264</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.9336016096579477</v>
+        <v>0.9736456808199122</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.3378378378378378</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.9459459459459459</v>
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.7155145972306732</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.8556318074599766</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.5849920144032131</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.6851908518141583</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.7321057899372264</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.9736456808199122</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.6296296296296297</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.7155145972306732</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.8556318074599766</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.5849920144032131</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.6851908518141583</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.7321057899372264</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.9736456808199122</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.6296296296296297</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.7155145972306732</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0.8556318074599766</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.5849920144032131</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.6851908518141583</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.7321057899372264</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.9736456808199122</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0.6296296296296297</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0.8518518518518519</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6867435332810895</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6434033337819768</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4625499888778851</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4049821715614312</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.4139678499217619</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9403377110694184</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.5137614678899083</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.8715596330275229</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.6867435332810895</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.6434033337819768</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.4625499888778851</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.4049821715614312</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.4139678499217619</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.9403377110694184</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.5137614678899083</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.8715596330275229</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.6867435332810895</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.6434033337819768</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.4625499888778851</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.4049821715614312</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.4139678499217619</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.9403377110694184</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.5137614678899083</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.8715596330275229</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.6867435332810895</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.6434033337819768</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.4625499888778851</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.4049821715614312</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.4139678499217619</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.9403377110694184</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.5137614678899083</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.8715596330275229</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.6867435332810895</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.6434033337819768</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.4625499888778851</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.4049821715614312</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.4139678499217619</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.9403377110694184</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.5137614678899083</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.8715596330275229</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.6867435332810895</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.6434033337819768</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.4625499888778851</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.4049821715614312</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.4139678499217619</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.9403377110694184</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.5137614678899083</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.8715596330275229</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0.6867435332810895</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.6434033337819768</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0.4625499888778851</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0.4049821715614312</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.4139678499217619</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.9403377110694184</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0.5137614678899083</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0.8715596330275229</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0.6867435332810895</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0.6434033337819768</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0.4625499888778851</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.4049821715614312</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0.4139678499217619</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0.9403377110694184</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0.5137614678899083</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0.8715596330275229</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7930728646191408</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9459189121845495</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5241522462011272</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6454267433329722</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8947625884284014</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9760763786493659</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.3966597077244259</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.8789144050104384</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.7930728646191408</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.9459189121845495</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.5241522462011272</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.6454267433329722</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.8947625884284014</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.9760763786493659</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.3966597077244259</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.8789144050104384</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.7930728646191408</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.9459189121845495</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.5241522462011272</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.6454267433329722</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.8947625884284014</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.9760763786493659</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.3966597077244259</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.8789144050104384</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.7930728646191408</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.9459189121845495</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.5241522462011272</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.6454267433329722</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.8947625884284014</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.9760763786493659</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.3966597077244259</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.8789144050104384</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.7930728646191408</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.9459189121845495</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.5241522462011272</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.6454267433329722</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.8947625884284014</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.9760763786493659</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.3966597077244259</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.8789144050104384</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.7930728646191408</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.9459189121845495</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.5241522462011272</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.6454267433329722</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.8947625884284014</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.9760763786493659</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.3966597077244259</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.8789144050104384</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0.7930728646191408</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.9459189121845495</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.5241522462011272</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0.6454267433329722</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.8947625884284014</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0.9760763786493659</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0.3966597077244259</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0.8789144050104384</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.7930728646191408</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0.9459189121845495</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0.5241522462011272</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0.6454267433329722</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0.8947625884284014</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0.9760763786493659</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0.3966597077244259</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0.8789144050104384</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7045179441698134</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6728267876850865</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.477110304570036</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4130104186245923</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.4526958862266325</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9550748752079867</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.3537414965986395</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.8979591836734694</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.7045179441698134</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.6728267876850865</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.477110304570036</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.4130104186245923</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.4526958862266325</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.9550748752079867</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.3537414965986395</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.8979591836734694</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.7045179441698134</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.6728267876850865</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.477110304570036</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.4130104186245923</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.4526958862266325</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.9550748752079867</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.3537414965986395</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.8979591836734694</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.7045179441698134</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.6728267876850865</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.477110304570036</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.4130104186245923</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.4526958862266325</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.9550748752079867</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.3537414965986395</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.8979591836734694</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.7045179441698134</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.6728267876850865</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.477110304570036</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.4130104186245923</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.4526958862266325</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.9550748752079867</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.3537414965986395</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.8979591836734694</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.7045179441698134</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.6728267876850865</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.477110304570036</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.4130104186245923</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.4526958862266325</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.9550748752079867</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.3537414965986395</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.8979591836734694</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.7045179441698134</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.6728267876850865</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.477110304570036</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.4130104186245923</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.4526958862266325</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0.9550748752079867</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0.3537414965986395</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0.8979591836734694</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0.7045179441698134</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0.6728267876850865</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0.477110304570036</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0.4130104186245923</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0.4526958862266325</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0.9550748752079867</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0.3537414965986395</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0.8979591836734694</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7187588857803736</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9076105196780833</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4606412168769128</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5193571109786742</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.8237568554303204</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9887679887679888</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5818181818181818</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9181818181818182</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.7187588857803736</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9076105196780833</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.4606412168769128</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.5193571109786742</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.8237568554303204</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.9887679887679888</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.5818181818181818</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.9181818181818182</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.7187588857803736</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.9076105196780833</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.4606412168769128</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.5193571109786742</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.8237568554303204</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.9887679887679888</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.5818181818181818</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.9181818181818182</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.7187588857803736</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.9076105196780833</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.4606412168769128</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.5193571109786742</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.8237568554303204</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.9887679887679888</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.5818181818181818</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.9181818181818182</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.7187588857803736</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.9076105196780833</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.4606412168769128</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.5193571109786742</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.8237568554303204</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.9887679887679888</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.5818181818181818</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.9181818181818182</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.7187588857803736</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.9076105196780833</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.4606412168769128</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.5193571109786742</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.8237568554303204</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.9887679887679888</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0.5818181818181818</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0.9181818181818182</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0.7187588857803736</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0.9076105196780833</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0.4606412168769128</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0.5193571109786742</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0.8237568554303204</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0.9887679887679888</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0.5818181818181818</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0.9181818181818182</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0.7187588857803736</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0.9076105196780833</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0.4606412168769128</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0.5193571109786742</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0.8237568554303204</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0.9887679887679888</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0.5818181818181818</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0.9181818181818182</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5777802026223867</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5655601692550767</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4187813333973914</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.3899297220256681</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.319858305047831</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.981421272642824</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.452991452991453</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9145299145299145</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5777802026223867</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.5655601692550767</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.4187813333973914</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.3899297220256681</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.319858305047831</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.981421272642824</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.452991452991453</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.9145299145299145</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.5777802026223867</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.5655601692550767</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.4187813333973914</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.3899297220256681</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.319858305047831</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.981421272642824</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.452991452991453</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.9145299145299145</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.5777802026223867</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.5655601692550767</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.4187813333973914</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.3899297220256681</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.319858305047831</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.981421272642824</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.452991452991453</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.9145299145299145</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.5777802026223867</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.5655601692550767</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.4187813333973914</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.3899297220256681</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.319858305047831</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.981421272642824</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.452991452991453</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.9145299145299145</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.5777802026223867</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.5655601692550767</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.4187813333973914</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.3899297220256681</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.319858305047831</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0.981421272642824</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0.452991452991453</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0.9145299145299145</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0.5777802026223867</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0.5655601692550767</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0.4187813333973914</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0.3899297220256681</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0.319858305047831</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0.981421272642824</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0.452991452991453</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0.9145299145299145</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0.5777802026223867</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0.5655601692550767</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0.4187813333973914</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0.3899297220256681</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0.319858305047831</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0.981421272642824</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>0.452991452991453</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0.9145299145299145</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6097008562946371</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6294466587515221</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4811560742896857</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4973664712364955</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.3962030962134551</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9774569597776577</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.4242424242424243</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.8848484848484849</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.6097008562946371</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.6294466587515221</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.4811560742896857</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.4973664712364955</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.3962030962134551</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.9774569597776577</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.4242424242424243</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.8848484848484849</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.6097008562946371</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.6294466587515221</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.4811560742896857</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.4973664712364955</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.3962030962134551</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.9774569597776577</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.4242424242424243</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.8848484848484849</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.6097008562946371</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.6294466587515221</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.4811560742896857</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.4973664712364955</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.3962030962134551</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.9774569597776577</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.4242424242424243</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.8848484848484849</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.6097008562946371</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.6294466587515221</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.4811560742896857</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.4973664712364955</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.3962030962134551</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.9774569597776577</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.4242424242424243</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.8848484848484849</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.6097008562946371</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.6294466587515221</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.4811560742896857</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.4973664712364955</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.3962030962134551</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0.9774569597776577</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0.4242424242424243</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0.8848484848484849</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0.6097008562946371</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0.6294466587515221</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0.4811560742896857</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0.4973664712364955</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0.3962030962134551</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0.9774569597776577</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0.4242424242424243</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0.8848484848484849</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0.6097008562946371</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0.6294466587515221</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0.4811560742896857</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0.4973664712364955</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>0.3962030962134551</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>0.9774569597776577</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>0.4242424242424243</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>0.8848484848484849</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.591922894158438</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5426653774249853</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3937804228276806</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.3142530423232486</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2944857118558018</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9695568400770713</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5566037735849056</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.9433962264150944</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.591922894158438</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.5426653774249853</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.3937804228276806</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.3142530423232486</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.2944857118558018</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.9695568400770713</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.5566037735849056</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.9433962264150944</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.591922894158438</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.5426653774249853</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.3937804228276806</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.3142530423232486</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.2944857118558018</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.9695568400770713</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.5566037735849056</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.9433962264150944</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.591922894158438</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.5426653774249853</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.3937804228276806</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.3142530423232486</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.2944857118558018</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.9695568400770713</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.5566037735849056</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.9433962264150944</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.591922894158438</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.5426653774249853</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.3937804228276806</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.3142530423232486</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.2944857118558018</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.9695568400770713</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.5566037735849056</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.9433962264150944</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.591922894158438</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.5426653774249853</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.3937804228276806</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.3142530423232486</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.2944857118558018</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.9695568400770713</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0.5566037735849056</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0.9433962264150944</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0.591922894158438</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0.5426653774249853</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0.3937804228276806</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0.3142530423232486</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0.2944857118558018</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0.9695568400770713</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0.5566037735849056</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0.9433962264150944</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0.591922894158438</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0.5426653774249853</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0.3937804228276806</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0.3142530423232486</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>0.2944857118558018</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>0.9695568400770713</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>0.5566037735849056</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>0.9433962264150944</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8128747368284737</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8310445449317609</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.464119951976832</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.4955856812673637</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.6906350356608376</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9751021049324536</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.5344827586206896</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.9396551724137931</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.8128747368284737</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.8310445449317609</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.464119951976832</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.4955856812673637</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.6906350356608376</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.9751021049324536</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.5344827586206896</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.9396551724137931</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.8128747368284737</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.8310445449317609</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.464119951976832</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.4955856812673637</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.6906350356608376</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.9751021049324536</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.5344827586206896</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.9396551724137931</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.8128747368284737</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.8310445449317609</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.464119951976832</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.4955856812673637</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.6906350356608376</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.9751021049324536</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.5344827586206896</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.9396551724137931</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.8128747368284737</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.8310445449317609</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.464119951976832</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.4955856812673637</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.6906350356608376</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.9751021049324536</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.5344827586206896</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.9396551724137931</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.8128747368284737</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.8310445449317609</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0.464119951976832</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0.4955856812673637</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0.6906350356608376</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0.9751021049324536</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0.5344827586206896</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0.9396551724137931</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0.8128747368284737</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0.8310445449317609</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0.464119951976832</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0.4955856812673637</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0.6906350356608376</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0.9751021049324536</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0.5344827586206896</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0.9396551724137931</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0.8128747368284737</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0.8310445449317609</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0.464119951976832</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>0.4955856812673637</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>0.6906350356608376</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>0.9751021049324536</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>0.5344827586206896</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>0.9396551724137931</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6873256553519288</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.6977731926973632</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4503353937901762</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.4544030985302006</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.4868874284470716</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9661123313460935</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.396551724137931</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9051724137931034</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.6873256553519288</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.6977731926973632</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.4503353937901762</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.4544030985302006</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.4868874284470716</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.9661123313460935</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.396551724137931</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.9051724137931034</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.6873256553519288</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.6977731926973632</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.4503353937901762</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.4544030985302006</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.4868874284470716</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.9661123313460935</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.396551724137931</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.9051724137931034</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.6873256553519288</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.6977731926973632</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.4503353937901762</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.4544030985302006</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.4868874284470716</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.9661123313460935</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.396551724137931</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.9051724137931034</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.6873256553519288</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.6977731926973632</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.4503353937901762</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.4544030985302006</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.4868874284470716</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.9661123313460935</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.396551724137931</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.9051724137931034</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.6873256553519288</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.6977731926973632</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.4503353937901762</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.4544030985302006</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.4868874284470716</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.9661123313460935</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0.396551724137931</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0.9051724137931034</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0.6873256553519288</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0.6977731926973632</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0.4503353937901762</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0.4544030985302006</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0.4868874284470716</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0.9661123313460935</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0.396551724137931</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0.9051724137931034</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0.6873256553519288</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0.6977731926973632</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0.4503353937901762</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>0.4544030985302006</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>0.4868874284470716</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>0.9661123313460935</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>0.396551724137931</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>0.9051724137931034</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="AP1:AW1"/>
     <mergeCell ref="R1:Y1"/>
     <mergeCell ref="Z1:AG1"/>
     <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="AX1:BE1"/>
     <mergeCell ref="AH1:AO1"/>
     <mergeCell ref="B1:I1"/>
+    <mergeCell ref="BF1:BM1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
